--- a/Results_of_Analyzes.xlsx
+++ b/Results_of_Analyzes.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\arquivos\mest\Bioinformatics_FAIR_Compliance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7812E6-174C-4201-9769-15877982D423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="19335" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Score Compliance Tests" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Graphs Compliance Tests" sheetId="2" r:id="rId5"/>
+    <sheet name="Score Compliance Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs Compliance Tests" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -104,12 +113,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>HUMAN</t>
-  </si>
-  <si>
-    <t>MACHINE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Findable </t>
   </si>
   <si>
@@ -187,43 +190,54 @@
   <si>
     <t>R1.1.2</t>
   </si>
+  <si>
+    <t>RaCE (Researcher Compliance Evaluator)</t>
+  </si>
+  <si>
+    <t>MaCE (Machine Compliance Evaluator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -251,7 +265,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -265,27 +285,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -295,150 +322,164 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE599"/>
           <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -455,30 +496,38 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Findable  (Human Compliance Tests)</a:t>
+              <a:t>Findable  (RaCE)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exemplary</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -486,17 +535,62 @@
               <a:srgbClr val="93C47D"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F4</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$B$6:$B$9</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EECB-48F6-B122-56F6B4B16DCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -504,6 +598,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -511,17 +611,62 @@
               <a:srgbClr val="FFD966"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F4</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$C$6:$C$9</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EECB-48F6-B122-56F6B4B16DCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -529,6 +674,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -536,17 +687,62 @@
               <a:srgbClr val="E06666"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F4</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$D$6:$D$9</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EECB-48F6-B122-56F6B4B16DCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -554,6 +750,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not tested</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -561,18 +763,72 @@
               <a:srgbClr val="999999"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F4</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$E$6:$E$9</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EECB-48F6-B122-56F6B4B16DCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="1820779109"/>
         <c:axId val="720479691"/>
@@ -599,7 +855,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -615,7 +871,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -628,9 +884,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720479691"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="720479691"/>
@@ -673,21 +935,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -706,9 +960,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1820779109"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -726,16 +983,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -752,30 +1021,38 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Accessible  (Human Compliance Tests)</a:t>
+              <a:t>Accessible  (RaCE)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exemplary</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -783,17 +1060,62 @@
               <a:srgbClr val="93C47D"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$B$12:$B$15</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C322-4089-B921-E19C7201D676}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -801,6 +1123,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -808,17 +1136,62 @@
               <a:srgbClr val="FFD966"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$C$12:$C$15</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C322-4089-B921-E19C7201D676}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -826,6 +1199,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -833,17 +1212,62 @@
               <a:srgbClr val="E06666"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$D$12:$D$15</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C322-4089-B921-E19C7201D676}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -851,6 +1275,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not tested</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -858,18 +1288,72 @@
               <a:srgbClr val="999999"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$E$12:$E$15</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C322-4089-B921-E19C7201D676}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="162534493"/>
         <c:axId val="507329289"/>
@@ -896,7 +1380,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -912,7 +1396,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -925,9 +1409,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="507329289"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="507329289"/>
@@ -970,21 +1460,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1003,9 +1485,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="162534493"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1023,16 +1508,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1049,30 +1546,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Interoperable (Human Compliance Tests)</a:t>
+              <a:t>Interoperable </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(RaCE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="0">
+              <a:solidFill>
+                <a:srgbClr val="757575"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exemplary</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1080,17 +1597,56 @@
               <a:srgbClr val="93C47D"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>I1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$B$18:$B$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1BC-4C69-8FF4-051DB18AFFB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1098,6 +1654,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1105,17 +1667,56 @@
               <a:srgbClr val="FFD966"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>I1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$C$18:$C$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1BC-4C69-8FF4-051DB18AFFB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1123,6 +1724,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1130,17 +1737,56 @@
               <a:srgbClr val="E06666"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>I1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$D$18:$D$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B1BC-4C69-8FF4-051DB18AFFB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1148,6 +1794,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not tested</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1155,18 +1807,66 @@
               <a:srgbClr val="999999"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>I1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$E$18:$E$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B1BC-4C69-8FF4-051DB18AFFB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="1037838345"/>
         <c:axId val="291728152"/>
@@ -1193,7 +1893,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1209,7 +1909,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1222,9 +1922,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="291728152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="291728152"/>
@@ -1267,21 +1973,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1300,9 +1998,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1037838345"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1320,16 +2021,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1346,30 +2059,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Reusable (Human Compliance Tests)</a:t>
+              <a:t>Reusable </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(RaCE)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="0">
+              <a:solidFill>
+                <a:srgbClr val="757575"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exemplary</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1377,17 +2110,62 @@
               <a:srgbClr val="93C47D"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$23:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R1.3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$B$23:$B$26</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1A5-4CCE-A681-8BCFDFFF6F91}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1395,6 +2173,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1402,17 +2186,62 @@
               <a:srgbClr val="FFD966"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$23:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R1.3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$C$23:$C$26</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1A5-4CCE-A681-8BCFDFFF6F91}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1420,6 +2249,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1427,17 +2262,62 @@
               <a:srgbClr val="E06666"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$23:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R1.3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$D$23:$D$26</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1A5-4CCE-A681-8BCFDFFF6F91}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1445,6 +2325,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not tested</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1452,18 +2338,72 @@
               <a:srgbClr val="999999"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$A$23:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>R1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R1.3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$E$23:$E$26</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1A5-4CCE-A681-8BCFDFFF6F91}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="530947407"/>
         <c:axId val="1937557049"/>
@@ -1490,7 +2430,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1506,7 +2446,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1519,9 +2459,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1937557049"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1937557049"/>
@@ -1564,21 +2510,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1597,9 +2535,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530947407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1617,16 +2558,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1643,30 +2596,38 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Findable (Machine Compliance Tests)</a:t>
+              <a:t>Findable (MaCE)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exemplary</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1674,17 +2635,86 @@
               <a:srgbClr val="93C47D"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$H$6:$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F2.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F2.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F3.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F4</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$I$6:$I$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-004A-441F-B326-C7D4E311715E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1692,6 +2722,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1699,18 +2735,96 @@
               <a:srgbClr val="E06666"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$H$6:$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F2.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F2.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F3.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F4</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$J$6:$J$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-004A-441F-B326-C7D4E311715E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="1036110171"/>
         <c:axId val="42625662"/>
@@ -1737,7 +2851,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1753,7 +2867,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1766,9 +2880,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="42625662"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="42625662"/>
@@ -1811,21 +2931,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1844,9 +2956,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1036110171"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1864,16 +2979,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1890,30 +3017,38 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Accessible (Machine Compliance Tests)</a:t>
+              <a:t>Accessible (MaCE)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exemplary</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1921,17 +3056,68 @@
               <a:srgbClr val="93C47D"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$H$16:$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A1.1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1.1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A1.2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A1.2.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$I$16:$I$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7399-4348-9293-13E6BC88ADC2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1939,6 +3125,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1946,18 +3138,78 @@
               <a:srgbClr val="E06666"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$H$16:$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A1.1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A1.1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A1.2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A1.2.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$J$16:$J$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7399-4348-9293-13E6BC88ADC2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="972278756"/>
         <c:axId val="1022208280"/>
@@ -1984,7 +3236,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2000,7 +3252,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2013,9 +3265,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022208280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1022208280"/>
@@ -2058,21 +3316,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2091,9 +3341,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972278756"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2111,16 +3364,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2137,13 +3402,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Interoperable (Machine Compliance Tests)</a:t>
+              <a:t>Interoperable (MaCE)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2152,23 +3417,31 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.03091666666666667"/>
-          <c:y val="0.04730458221024259"/>
+          <c:x val="3.0916666666666669E-2"/>
+          <c:y val="4.7304582210242592E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exemplary</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2176,17 +3449,68 @@
               <a:srgbClr val="93C47D"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$H$23:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>I1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>I2.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$I$23:$I$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3968-4FFD-B741-335A5829A762}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2194,6 +3518,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2201,18 +3531,78 @@
               <a:srgbClr val="E06666"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$H$23:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>I1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>I2.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I3</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$J$23:$J$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3968-4FFD-B741-335A5829A762}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="835182603"/>
         <c:axId val="1681046293"/>
@@ -2239,7 +3629,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2255,7 +3645,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2268,9 +3658,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1681046293"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1681046293"/>
@@ -2313,21 +3709,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2346,9 +3734,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="835182603"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2366,16 +3757,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2392,30 +3795,38 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Reusable (Machine Compliance Tests)</a:t>
+              <a:t>Reusable (MaCE)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exemplary</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2423,17 +3834,50 @@
               <a:srgbClr val="93C47D"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$H$30:$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>R1.1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1.1.2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$I$30:$I$31</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D8F-4330-ABEC-B630CA420692}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2441,6 +3885,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2448,18 +3898,60 @@
               <a:srgbClr val="E06666"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>'Graphs Compliance Tests'!$H$30:$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>R1.1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1.1.2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Graphs Compliance Tests'!$J$30:$J$31</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D8F-4330-ABEC-B630CA420692}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="184995432"/>
         <c:axId val="669683679"/>
@@ -2486,7 +3978,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-GB" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2502,7 +3994,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2515,9 +4007,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="669683679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="669683679"/>
@@ -2560,21 +4058,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2593,9 +4083,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="184995432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2613,20 +4106,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2635,9 +4132,15 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="2562225"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2646,7 +4149,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2660,9 +4163,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="2562225"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2671,7 +4180,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2685,9 +4194,15 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="2562225"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="4" name="Chart 3" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2696,7 +4211,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2710,9 +4225,15 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="2562225"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="5" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2721,7 +4242,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2735,9 +4256,15 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="2562225"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="6" name="Chart 5" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2746,7 +4273,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2760,9 +4287,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="2562225"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
+        <xdr:cNvPr id="7" name="Chart 6" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2771,7 +4304,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2785,9 +4318,15 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="2562225"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
+        <xdr:cNvPr id="8" name="Chart 7" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2796,7 +4335,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2810,9 +4349,15 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4143375" cy="2562225"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 8" title="Chart"/>
+        <xdr:cNvPr id="9" name="Chart 8" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2821,7 +4366,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2831,7 +4376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3021,32 +4566,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:AB23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AB9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="16" width="5.57"/>
-    <col customWidth="1" min="17" max="17" width="7.14"/>
-    <col customWidth="1" min="18" max="18" width="11.86"/>
-    <col customWidth="1" min="19" max="21" width="5.57"/>
-    <col customWidth="1" min="22" max="22" width="6.86"/>
-    <col customWidth="1" min="23" max="23" width="8.43"/>
-    <col customWidth="1" min="24" max="24" width="13.71"/>
-    <col customWidth="1" min="25" max="25" width="8.29"/>
-    <col customWidth="1" min="26" max="26" width="9.0"/>
-    <col customWidth="1" min="27" max="27" width="13.86"/>
+    <col min="2" max="16" width="5.5703125" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="21" width="5.5703125" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3101,531 +4651,531 @@
       <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q9" si="1">SUM(B3:O3)</f>
+        <f t="shared" ref="Q3:Q9" si="0">SUM(B3:O3)</f>
         <v>33</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R9" si="2">DIVIDE(Q3,14)</f>
-        <v>2.357142857</v>
-      </c>
-      <c r="X3" s="1" t="s">
+        <f>AVERAGE(Q3,14)</f>
+        <v>23.5</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y9" si="3">SUM(B3:O3)</f>
+      <c r="Z3" s="3">
+        <f>SUM(B3:O3)</f>
         <v>33</v>
       </c>
-      <c r="Z3" s="5">
-        <f t="shared" ref="Z3:Z9" si="4">SUM(B16:U16)</f>
+      <c r="AA3" s="5">
+        <f>SUM(B16:U16)</f>
         <v>34</v>
       </c>
-      <c r="AA3" s="5">
-        <f t="shared" ref="AA3:AA9" si="5">DIVIDE(SUM(Y3,Z3),2)</f>
-        <v>33.5</v>
+      <c r="AB3" s="5">
+        <f>AVERAGE(SUM(Z3,AA3),2)</f>
+        <v>34.5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" si="2"/>
-        <v>2.714285714</v>
-      </c>
-      <c r="X4" s="1" t="s">
+        <f>AVERAGE(Q4,14)</f>
+        <v>26</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="5">
-        <f t="shared" si="3"/>
+      <c r="Z4" s="5">
+        <f>SUM(B4:O4)</f>
         <v>38</v>
       </c>
-      <c r="Z4" s="5">
-        <f t="shared" si="4"/>
+      <c r="AA4" s="5">
+        <f>SUM(B17:U17)</f>
         <v>52</v>
       </c>
-      <c r="AA4" s="5">
-        <f t="shared" si="5"/>
-        <v>45</v>
+      <c r="AB4" s="5">
+        <f>AVERAGE(SUM(Z4,AA4),2)</f>
+        <v>46</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="2"/>
-        <v>2.714285714</v>
-      </c>
-      <c r="X5" s="1" t="s">
+        <f>AVERAGE(Q5,14)</f>
+        <v>26</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="3"/>
+      <c r="Z5" s="5">
+        <f>SUM(B5:O5)</f>
         <v>38</v>
       </c>
-      <c r="Z5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AA5" s="5">
+        <f>SUM(B18:U18)</f>
         <v>52</v>
       </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="5"/>
-        <v>45</v>
+      <c r="AB5" s="5">
+        <f>AVERAGE(SUM(Z5,AA5),2)</f>
+        <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="2"/>
-        <v>2.928571429</v>
-      </c>
-      <c r="X6" s="1" t="s">
+        <f>AVERAGE(Q6,14)</f>
+        <v>27.5</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="3"/>
+      <c r="Z6" s="5">
+        <f>SUM(B6:O6)</f>
         <v>41</v>
       </c>
-      <c r="Z6" s="5">
-        <f t="shared" si="4"/>
+      <c r="AA6" s="5">
+        <f>SUM(B19:U19)</f>
         <v>54</v>
       </c>
-      <c r="AA6" s="5">
-        <f t="shared" si="5"/>
-        <v>47.5</v>
+      <c r="AB6" s="5">
+        <f>AVERAGE(SUM(Z6,AA6),2)</f>
+        <v>48.5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="2"/>
-        <v>1.857142857</v>
-      </c>
-      <c r="X7" s="1" t="s">
+        <f>AVERAGE(Q7,14)</f>
+        <v>20</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="5">
-        <f t="shared" si="3"/>
+      <c r="Z7" s="5">
+        <f>SUM(B7:O7)</f>
         <v>26</v>
       </c>
-      <c r="Z7" s="5">
-        <f t="shared" si="4"/>
+      <c r="AA7" s="5">
+        <f>SUM(B20:U20)</f>
         <v>28</v>
       </c>
-      <c r="AA7" s="5">
-        <f t="shared" si="5"/>
-        <v>27</v>
+      <c r="AB7" s="5">
+        <f>AVERAGE(SUM(Z7,AA7),2)</f>
+        <v>28</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="2"/>
-        <v>2.214285714</v>
-      </c>
-      <c r="X8" s="1" t="s">
+        <f>AVERAGE(Q8,14)</f>
+        <v>22.5</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="5">
-        <f t="shared" si="3"/>
+      <c r="Z8" s="5">
+        <f>SUM(B8:O8)</f>
         <v>31</v>
       </c>
-      <c r="Z8" s="5">
-        <f t="shared" si="4"/>
+      <c r="AA8" s="5">
+        <f>SUM(B21:U21)</f>
         <v>36</v>
       </c>
-      <c r="AA8" s="5">
-        <f t="shared" si="5"/>
-        <v>33.5</v>
+      <c r="AB8" s="5">
+        <f>AVERAGE(SUM(Z8,AA8),2)</f>
+        <v>34.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="2"/>
-        <v>2.714285714</v>
-      </c>
-      <c r="X9" s="1" t="s">
+        <f>AVERAGE(Q9,14)</f>
+        <v>26</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="5">
-        <f t="shared" si="3"/>
+      <c r="Z9" s="5">
+        <f>SUM(B9:O9)</f>
         <v>38</v>
       </c>
-      <c r="Z9" s="5">
-        <f t="shared" si="4"/>
+      <c r="AA9" s="5">
+        <f>SUM(B22:U22)</f>
         <v>46</v>
       </c>
-      <c r="AA9" s="5">
-        <f t="shared" si="5"/>
-        <v>42</v>
+      <c r="AB9" s="5">
+        <f>AVERAGE(SUM(Z9,AA9),2)</f>
+        <v>43</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3696,533 +5246,533 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="7">
-        <f t="shared" ref="V16:V22" si="6">SUM(B16:U16)</f>
+        <f t="shared" ref="V16:V22" si="1">SUM(B16:U16)</f>
         <v>34</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" ref="W16:W22" si="7">DIVIDE(V16,20)</f>
-        <v>1.7</v>
+        <f>AVERAGE(V16,20)</f>
+        <v>27</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T17" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="7"/>
-        <v>2.6</v>
+        <f>AVERAGE(V17,20)</f>
+        <v>36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R18" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U18" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="7"/>
-        <v>2.6</v>
+        <f>AVERAGE(V18,20)</f>
+        <v>36</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N19" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R19" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U19" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="7"/>
-        <v>2.7</v>
+        <f>AVERAGE(V19,20)</f>
+        <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" si="7"/>
-        <v>1.4</v>
+        <f>AVERAGE(V20,20)</f>
+        <v>24</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P21" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
+        <f>AVERAGE(V21,20)</f>
+        <v>28</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U22" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" si="7"/>
-        <v>2.3</v>
+        <f>AVERAGE(V22,20)</f>
+        <v>33</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:O9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:O9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:O9">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4289,7 +5839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA9">
+  <conditionalFormatting sqref="AB3:AB9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4301,7 +5851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Z9">
+  <conditionalFormatting sqref="Z3:AA9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4313,890 +5863,893 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="H4" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="H4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
         <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="C6" s="22">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C6" s="19">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="D6" s="23">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D6" s="20">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="25">
-        <f t="shared" ref="F6:F9" si="1">SUM(B6:E6)</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="26">
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F9" si="0">SUM(B6:E6)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="23">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="25">
-        <f t="shared" ref="K6:K13" si="2">SUM(I6:J6)</f>
+      <c r="K6" s="22">
+        <f t="shared" ref="K6:K13" si="1">SUM(I6:J6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="25">
         <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="C7" s="29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C7" s="26">
         <f>(2/B1)</f>
-        <v>0.2857142857</v>
-      </c>
-      <c r="D7" s="30">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D7" s="27">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="E7" s="31">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E7" s="28">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="29">
+        <f>(4/B1)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J7" s="24">
+        <f>(3/B1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K7" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="32">
-        <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="J7" s="27">
-        <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="K7" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="28">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25">
         <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="C8" s="29">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C8" s="26">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="E8" s="31">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E8" s="28">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="29">
+        <f>(4/B1)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J8" s="24">
+        <f>(3/B1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K8" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="32">
-        <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="J8" s="27">
-        <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="K8" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="25">
         <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="C9" s="29">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C9" s="26">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="E9" s="31">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E9" s="28">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="29">
+        <f>(5/B1)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J9" s="24">
+        <f>(2/B1)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K9" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="20" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="H10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="29">
+        <f>(3/B1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J10" s="24">
+        <f>(4/B1)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="32">
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="29">
+        <f>(2/B1)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J11" s="24">
         <f>(5/B1)</f>
-        <v>0.7142857143</v>
-      </c>
-      <c r="J9" s="27">
-        <f>(2/B1)</f>
-        <v>0.2857142857</v>
-      </c>
-      <c r="K9" s="25">
-        <f t="shared" si="2"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="H10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="32">
-        <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="J10" s="27">
-        <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="K10" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="32">
-        <f>(2/B1)</f>
-        <v>0.2857142857</v>
-      </c>
-      <c r="J11" s="27">
-        <f>(5/B1)</f>
-        <v>0.7142857143</v>
-      </c>
-      <c r="K11" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="29">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="35">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="25">
-        <f t="shared" ref="F12:F15" si="3">SUM(B12:E12)</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="32">
+      <c r="F12" s="22">
+        <f t="shared" ref="F12:F15" si="2">SUM(B12:E12)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="29">
         <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="J12" s="27">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J12" s="24">
         <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="K12" s="25">
-        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="35">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="F13" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="29">
         <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="J13" s="27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J13" s="24">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="K13" s="25">
-        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="29">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="35">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="37"/>
+      <c r="F14" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="34"/>
     </row>
-    <row r="15">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="29">
         <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="C15" s="38">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C15" s="35">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="D15" s="41">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D15" s="38">
         <f>(2/B1)</f>
-        <v>0.2857142857</v>
-      </c>
-      <c r="E15" s="39">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E15" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="H16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="29">
+        <f>(6/B1)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J16" s="24">
+        <f>(1/B1)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" ref="K16:K20" si="3">SUM(I16:J16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="29">
+        <f>(6/B1)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J17" s="24">
+        <f>(1/B1)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K17" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="16">
-      <c r="A16" s="20"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="H16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="32">
-        <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="J16" s="27">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="29">
+        <f>(3/B1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C18" s="39">
+        <f>(3/B1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D18" s="37">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="K16" s="25">
-        <f t="shared" ref="K16:K20" si="4">SUM(I16:J16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="32">
-        <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="J17" s="27">
-        <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="K17" s="25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="32">
-        <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="C18" s="42">
-        <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="D18" s="40">
-        <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="E18" s="39">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E18" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="25">
-        <f t="shared" ref="F18:F20" si="5">SUM(B18:E18)</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="32">
+      <c r="F18" s="22">
+        <f t="shared" ref="F18:F20" si="4">SUM(B18:E18)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="29">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="25">
-        <f t="shared" si="4"/>
+      <c r="K18" s="22">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="29">
         <f>(2/B1)</f>
-        <v>0.2857142857</v>
-      </c>
-      <c r="C19" s="42">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C19" s="39">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="24">
         <f>(5/B1)</f>
-        <v>0.7142857143</v>
-      </c>
-      <c r="E19" s="39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E19" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="25">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="32">
+      <c r="F19" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="29">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="25">
-        <f t="shared" si="4"/>
+      <c r="K19" s="22">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="29">
         <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="C20" s="38">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C20" s="35">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="24">
         <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="E20" s="39">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E20" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="25">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="F20" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="29">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="24">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="25">
-        <f t="shared" si="4"/>
+      <c r="K20" s="22">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="20"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="37"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="34"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="23">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="29">
         <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="C23" s="38">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C23" s="35">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="24">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="E23" s="43">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E23" s="40">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="25">
-        <f t="shared" ref="F23:F26" si="6">SUM(B23:E23)</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="32">
+      <c r="F23" s="22">
+        <f t="shared" ref="F23:F26" si="5">SUM(B23:E23)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="29">
         <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="J23" s="27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J23" s="24">
         <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="K23" s="25">
-        <f t="shared" ref="K23:K27" si="7">SUM(I23:J23)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" ref="K23:K27" si="6">SUM(I23:J23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="29">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="35">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="29">
+        <f>(5/B1)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J24" s="24">
+        <f>(2/B1)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K24" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="32">
-        <f>(5/B1)</f>
-        <v>0.7142857143</v>
-      </c>
-      <c r="J24" s="27">
-        <f>(2/B1)</f>
-        <v>0.2857142857</v>
-      </c>
-      <c r="K24" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="25">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="29">
         <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="C25" s="38">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C25" s="35">
         <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="D25" s="27">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D25" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="36">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="29">
+        <f>(3/B1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J25" s="24">
+        <f>(4/B1)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K25" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="32">
-        <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="J25" s="27">
-        <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="K25" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="26">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="29">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="35">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="24">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="36">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="25">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="32">
+      <c r="F26" s="22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="29">
         <f>(0/B1)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="24">
         <f>(7/B1)</f>
         <v>1</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="29">
+        <f>(2/B1)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J27" s="24">
+        <f>(5/B1)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="34"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="41">
+        <f>(3/B1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J30" s="42">
+        <f>(4/B1)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K30" s="22">
+        <f t="shared" ref="K30:K31" si="7">SUM(I30:J30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="41">
+        <f>(1/B1)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J31" s="43">
+        <f>(6/B1)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K31" s="22">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="H27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="32">
-        <f>(2/B1)</f>
-        <v>0.2857142857</v>
-      </c>
-      <c r="J27" s="27">
-        <f>(5/B1)</f>
-        <v>0.7142857143</v>
-      </c>
-      <c r="K27" s="25">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="H28" s="37"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29">
-      <c r="H29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="H30" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="44">
-        <f>(3/B1)</f>
-        <v>0.4285714286</v>
-      </c>
-      <c r="J30" s="45">
-        <f>(4/B1)</f>
-        <v>0.5714285714</v>
-      </c>
-      <c r="K30" s="25">
-        <f t="shared" ref="K30:K31" si="8">SUM(I30:J30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="H31" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="44">
-        <f>(1/B1)</f>
-        <v>0.1428571429</v>
-      </c>
-      <c r="J31" s="46">
-        <f>(6/B1)</f>
-        <v>0.8571428571</v>
-      </c>
-      <c r="K31" s="25">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5205,6 +6758,7 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="H4:K4"/>
   </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>